--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3796.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3796.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.03931279220624</v>
+        <v>2.453128576278687</v>
       </c>
       <c r="B1">
-        <v>2.247117933284683</v>
+        <v>5.465088367462158</v>
       </c>
       <c r="C1">
-        <v>2.4844062092468</v>
+        <v>2.52459979057312</v>
       </c>
       <c r="D1">
-        <v>3.710508467509133</v>
+        <v>1.693475484848022</v>
       </c>
       <c r="E1">
-        <v>1.940908760224994</v>
+        <v>1.662680387496948</v>
       </c>
     </row>
   </sheetData>
